--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_18_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59196.68270869564</v>
+        <v>11780139.85903042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>59196.68270869564</v>
+        <v>11780139.85903042</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>477.3995476307051</v>
+        <v>29939.65318049357</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.3995476307051</v>
+        <v>29939.65318049357</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189419134.229194</v>
+        <v>49019044.34269311</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10165.34451343677</v>
+        <v>1136821.915978885</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19286.24371425677</v>
+        <v>2111655.954462629</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28407.14291507677</v>
+        <v>3086489.992946374</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37612.29970464054</v>
+        <v>4067187.679204136</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>46793.9364942043</v>
+        <v>5043204.885461898</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>55975.57328376806</v>
+        <v>6019222.091719658</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65157.21007333184</v>
+        <v>6995239.297977416</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>74338.84686289559</v>
+        <v>7971256.504235173</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>83518.56792794785</v>
+        <v>8947078.852962207</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>92699.0017202728</v>
+        <v>9923043.034416515</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>101879.4355125978</v>
+        <v>10899007.21587083</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>110976.7762240201</v>
+        <v>11868950.76344021</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>120097.6369354424</v>
+        <v>12843574.79100959</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>129218.4976468647</v>
+        <v>13818198.81857897</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>138339.358358287</v>
+        <v>14792822.84614835</v>
       </c>
     </row>
   </sheetData>
